--- a/similarities/split_global/harmonic_similarity_timestamps_175.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_175.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,706 +484,742 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_179</t>
+          <t>schubert-winterreise_114</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
+          <t>schubert-winterreise_178</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'A#:7', 'D#:maj/A#'], ['D:min/A', 'A:7', 'D:min']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['G#:maj/D#', 'D#:7', 'G#:maj'], ['G:min', 'D:7', 'G:min']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:01:37.120000', '0:01:44.100000'), ('0:02:11.200000', '0:02:16.340000')]</t>
+          <t>('0:01:25.580000', '0:01:34.240000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:01:52.780000', '0:02:00.720000'), ('0:00:19.440000', '0:00:28.300000')]</t>
+          <t>('0:00:02.300000', '0:00:07.040000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-179#t=97.12', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-179#t=131.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=85.58</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-169#t=112.78', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-169#t=19.44']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-178#t=2.3</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_191</t>
+          <t>isophonics_48</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_44</t>
+          <t>schubert-winterreise_10</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['B', 'Gb', 'B']]</t>
+          <t>['B:7', 'E', 'A']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['F#/A#', 'C#', 'F#']]</t>
+          <t>['D:7', 'G:maj', 'C:maj']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:15.552131', '0:00:21.368730')]</t>
+          <t>('0:00:32.367960', '0:00:41.621112')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:54.480000', '0:00:59.100000')]</t>
+          <t>('0:01:04.300000', '0:01:14.900000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-191#t=15.552131']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-48#t=32.36796</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=54.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-10#t=64.3</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_194</t>
+          <t>schubert-winterreise_126</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_179</t>
+          <t>schubert-winterreise_196</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:maj/B', 'C:min'], ['C:min', 'G:7/D', 'C:min/D#']]</t>
+          <t>['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min'], ['D:min/A', 'A:7', 'D:min']]</t>
+          <t>['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:13.520000', '0:00:19.080000'), ('0:00:02', '0:00:04.320000')]</t>
+          <t>('0:00:17.560000', '0:00:47.240000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:00.980000', '0:00:06.140000'), ('0:02:11.200000', '0:02:16.340000')]</t>
+          <t>('0:00:35.460000', '0:00:50.440000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-194#t=13.52', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-194#t=2.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=17.56</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-179#t=0.98', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-179#t=131.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-196#t=35.46</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>schubert-winterreise_3</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_60</t>
+          <t>jaah_66</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['D#:min', 'A#:7', 'D#:min', 'A#:maj', 'D#:min']]</t>
+          <t>['G#:7', 'C#:maj', 'G#:7', 'C#:maj']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min']]</t>
+          <t>['Eb:7', 'Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:11.420000', '0:00:19.140000')]</t>
+          <t>('0:00:07.340000', '0:00:09.640000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:21.480000', '0:00:52.900000')]</t>
+          <t>('0:00:55.230000', '0:01:05.420000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=11.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-3#t=7.34</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-60#t=21.48']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-66#t=55.23</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>jaah_38</t>
+          <t>schubert-winterreise_65</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jaah_50</t>
+          <t>jaah_25</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['B:hdim7', 'E:(3,5,b7,b9)', 'A:min7']]</t>
+          <t>['A#:7', 'D#:maj', 'A#:7', 'D#:maj']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['G:hdim7', 'C:(3,5,b7,b9)', 'F:min7']]</t>
+          <t>['F:7', 'Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:47.520000', '0:00:52.930000')]</t>
+          <t>('0:01:04.080000', '0:01:11.860000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:07.730000', '0:00:10.250000')]</t>
+          <t>('0:00:48.250000', '0:00:59.490000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-38#t=47.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=64.08</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-50#t=7.73']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-25#t=48.25</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_215</t>
+          <t>schubert-winterreise_142</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
+          <t>isophonics_235</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['F:maj', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>['Bb', 'F', 'Bb']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:15.780000', '0:00:21.280000')]</t>
+          <t>('0:00:41.080000', '0:00:43.260000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:36.660000', '0:00:43.940000')]</t>
+          <t>('0:00:26.041712', '0:00:37.106020')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-215#t=15.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=41.08</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-45#t=36.66']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-235#t=26.041712</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_198</t>
+          <t>schubert-winterreise_129</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_159</t>
+          <t>schubert-winterreise_146</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
+          <t>['F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['A', 'D/5', 'A', 'E/4']]</t>
+          <t>['B:min/F#', 'F#:7', 'B:min']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:55.180000', '0:01:05.560000')]</t>
+          <t>('0:00:08.200000', '0:00:12.660000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:17.913000', '0:00:26.611000')]</t>
+          <t>('0:01:21.100000', '0:01:27.580000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=55.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=8.2</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=17.913']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-146#t=81.1</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_53</t>
+          <t>schubert-winterreise_109</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_282</t>
+          <t>schubert-winterreise_211</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['A:maj', 'E:maj', 'B:maj']]</t>
+          <t>['C:7', 'F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb', 'F']]</t>
+          <t>['C:7/E', 'F:maj', 'C:7/E', 'F:maj']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:58.920000', '0:01:06.100000')]</t>
+          <t>('0:01:37.640000', '0:01:51')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:29.719863', '0:00:35.722222')]</t>
+          <t>('0:00:36.500000', '0:00:41.660000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=58.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-109#t=97.64</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-282#t=29.719863']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>spotify:track:3Am0IbOxmvlSXro7N5iSfZ</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-211#t=36.5</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_104</t>
+          <t>isophonics_160</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_95</t>
+          <t>isophonics_194</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj'], ['C:min', 'F:7/A', 'A#:maj']]</t>
+          <t>['Ab:maj', 'Eb/3', 'F:min']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C'], ['C:min', 'F:7/C', 'A#']]</t>
+          <t>['D', 'A', 'B:min']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:00.240000', '0:00:08.180000'), ('0:00:31.240000', '0:00:37.500000')]</t>
+          <t>('0:00:20.996000', '0:00:24.398000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:03:46.620000', '0:03:52.800000'), ('0:00:33.260000', '0:00:35.860000')]</t>
+          <t>('0:01:00.888687', '0:01:09.665829')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-104#t=0.24', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-104#t=31.24']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-160#t=20.996</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=226.62', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=33.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-194#t=60.888687</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_213</t>
+          <t>schubert-winterreise_170</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>isophonics_107</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>['D:7', 'G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>['B:7', 'E', 'A', 'E']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:42.940000', '0:00:51.080000')]</t>
+          <t>('0:00:14.900000', '0:00:22.500000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:41.580000', '0:00:43.480000')]</t>
+          <t>('0:00:13.384180', '0:00:22.457415')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-213#t=42.94']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=14.9</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=41.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-107#t=13.38418</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
+          <t>schubert-winterreise_160</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_46</t>
+          <t>isophonics_274</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7/D', 'C:min', 'G:7/D', 'C:min', 'G:7', 'C:min', 'G:7', 'C:min']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
+          <t>['Ab', 'Db', 'Ab']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:00.360000', '0:00:45.540000')]</t>
+          <t>('0:01:20.420000', '0:01:24.640000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:02:41.960000', '0:03:17.420000')]</t>
+          <t>('0:00:03.129454', '0:00:05.172811')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-71#t=0.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-160#t=80.42</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-46#t=161.96']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-274#t=3.129454</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>schubert-winterreise_53</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_88</t>
+          <t>schubert-winterreise_54</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>['E:min', 'B:maj', 'E:min']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>['G:min', 'D:maj/G', 'G:min']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:01:08.820000', '0:01:24.540000')]</t>
+          <t>('0:01:22.500000', '0:01:30.740000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:16.040000', '0:00:24.060000')]</t>
+          <t>('0:00:09.240000', '0:00:16.260000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=68.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=82.5</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-88#t=16.04']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-54#t=9.24</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>schubert-winterreise_2</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_193</t>
+          <t>jaah_29</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:maj', 'F:min'], ['F:maj', 'C:7', 'F:maj'], ['F:min', 'C:7', 'F:min']]</t>
+          <t>['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G', 'C:min'], ['C/G', 'G:7', 'C'], ['C:min/G', 'G:7', 'C:min']]</t>
+          <t>['Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:00.240000', '0:00:05.080000'), ('0:00:43.340000', '0:00:59.340000'), ('0:00:08.460000', '0:00:13.460000')]</t>
+          <t>('0:00:20.560000', '0:00:30.380000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:13.720000', '0:00:20.760000'), ('0:04:11.500000', '0:04:17.660000'), ('0:00:24.180000', '0:00:30.020000')]</t>
+          <t>('0:00:31.910000', '0:00:40.720000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=0.24', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=43.34', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=8.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-2#t=20.56</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=13.72', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=251.5', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=24.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=31.91</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_48</t>
+          <t>isophonics_296</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jaah_29</t>
+          <t>schubert-winterreise_103</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['D:maj', 'G:maj', 'D/3']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['Db', 'Ab', 'Eb:7', 'Ab']]</t>
+          <t>['G:maj', 'C:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:58.400000', '0:01:08.120000')]</t>
+          <t>('0:01:08.669000', '0:01:14.662000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:01:49.860000', '0:01:58.640000')]</t>
+          <t>('0:00:11.320000', '0:00:13.400000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-48#t=58.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-296#t=68.669</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=109.86']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-103#t=11.32</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>jaah_7</t>
+          <t>schubert-winterreise_94</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>jaah_56</t>
+          <t>schubert-winterreise_203</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb:7', 'Eb:maj6'], ['F:min7', 'Bb:7', 'Eb']]</t>
+          <t>['A#:min/F', 'F:7', 'A#:min']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb:7', 'Ab:maj6'], ['Bb:min7', 'Eb:7', 'Ab']]</t>
+          <t>['G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:14.240000', '0:00:17.770000'), ('0:00:08.350000', '0:00:11.880000')]</t>
+          <t>('0:01:24.620000', '0:01:31.740000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:31.660000', '0:00:38.640000'), ('0:00:13.210000', '0:00:15.930000')]</t>
+          <t>('0:00:43.180000', '0:00:45.100000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-7#t=14.24', 'https://soundcloud.com/jacopo-de-berardinis/jaah-7#t=8.35']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-94#t=84.62</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-56#t=31.66', 'https://soundcloud.com/jacopo-de-berardinis/jaah-56#t=13.21']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=43.18</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
